--- a/results/mp/logistic/corona/confidence/168/masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,18 +58,18 @@
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,72 +88,72 @@
     <t>co</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>free</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>better</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -163,25 +163,25 @@
     <t>relief</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>share</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>you</t>
@@ -542,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -635,13 +635,13 @@
         <v>27</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +685,13 @@
         <v>28</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +735,13 @@
         <v>29</v>
       </c>
       <c r="K5">
-        <v>0.8833333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +761,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7368421052631579</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,13 +811,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7027027027027027</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>318</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +861,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.576271186440678</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +879,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K8">
-        <v>0.8537859007832899</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="M8">
-        <v>327</v>
+        <v>104</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +911,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5490196078431373</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,13 +961,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5234899328859061</v>
+        <v>0.5329457364341085</v>
       </c>
       <c r="C10">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="D10">
-        <v>78</v>
+        <v>275</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>34</v>
@@ -1011,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5079365079365079</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C11">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1061,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5077519379844961</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C12">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K12">
-        <v>0.7924528301886793</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L12">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="M12">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1111,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4666666666666667</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,13 +1161,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3888888888888889</v>
+        <v>0.375</v>
       </c>
       <c r="C14">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D14">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.7625</v>
       </c>
       <c r="L14">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,13 +1211,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2619047619047619</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C15">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1229,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,13 +1261,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.160857908847185</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K16">
-        <v>0.7659574468085106</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1311,37 +1311,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01305263157894737</v>
+        <v>0.01138279932546374</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="F17">
-        <v>0.89</v>
+        <v>0.79</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K17">
-        <v>0.717948717948718</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01096067053513862</v>
+        <v>0.009023525620367387</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E18">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F18">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3068</v>
+        <v>3075</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1411,37 +1411,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006022925976296872</v>
+        <v>0.006031363088057901</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>0.37</v>
+        <v>0.42</v>
       </c>
       <c r="F19">
-        <v>0.63</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>5116</v>
+        <v>4944</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>0.7083333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1461,37 +1461,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005219835374422807</v>
+        <v>0.005838847800700661</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>0.37</v>
+        <v>0.47</v>
       </c>
       <c r="F20">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>4955</v>
+        <v>5108</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K20">
-        <v>0.6976744186046512</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1511,13 +1511,13 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>0.6944444444444444</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1537,13 +1537,13 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1589,13 +1589,13 @@
         <v>48</v>
       </c>
       <c r="K24">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1615,13 +1615,13 @@
         <v>49</v>
       </c>
       <c r="K25">
-        <v>0.5774058577405857</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L25">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1641,13 +1641,13 @@
         <v>50</v>
       </c>
       <c r="K26">
-        <v>0.574468085106383</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L26">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="M26">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1667,13 +1667,13 @@
         <v>51</v>
       </c>
       <c r="K27">
-        <v>0.5692307692307692</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>171</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1693,13 +1693,13 @@
         <v>52</v>
       </c>
       <c r="K28">
-        <v>0.5661016949152542</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L28">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="M28">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1719,13 +1719,13 @@
         <v>53</v>
       </c>
       <c r="K29">
-        <v>0.5168539325842697</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1745,13 +1745,13 @@
         <v>54</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1771,13 +1771,13 @@
         <v>55</v>
       </c>
       <c r="K31">
-        <v>0.3972602739726027</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L31">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1789,7 +1789,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1797,25 +1797,51 @@
         <v>56</v>
       </c>
       <c r="K32">
-        <v>0.02926421404682274</v>
+        <v>0.02085070892410342</v>
       </c>
       <c r="L32">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N32">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="O32">
-        <v>0.09999999999999998</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1161</v>
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>0.005258033106134372</v>
+      </c>
+      <c r="L33">
+        <v>27</v>
+      </c>
+      <c r="M33">
+        <v>57</v>
+      </c>
+      <c r="N33">
+        <v>0.47</v>
+      </c>
+      <c r="O33">
+        <v>0.53</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>5108</v>
       </c>
     </row>
   </sheetData>
